--- a/甲方给的吹膜工序文档/A 下拉菜单文件/SOP-MFG-301-R03 吹膜机组清洁记录_吴.xlsx
+++ b/甲方给的吹膜工序文档/A 下拉菜单文件/SOP-MFG-301-R03 吹膜机组清洁记录_吴.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>颇尔奥星包装科技（北京）有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,228 +102,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四层旋转牵引</t>
-  </si>
-  <si>
-    <t>三层人字夹板</t>
-  </si>
-  <si>
-    <t>二层稳泡器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>二层纠偏及二牵引</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>挤出机</t>
-  </si>
-  <si>
-    <t>设备表面、气垫辊、展平辊的缝隙、地面清洁。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备表面、一牵引、人字夹板导辊，地面清洁。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备表面、稳泡器导辊，地面清洁。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备表面、纠偏及二牵引导辊、地面清洁。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备表面、膜路保护、风环、模头、三层挤出机清洁。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>收卷机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备表面、收卷系统导辊、侧柜清洁，</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>相关设备清洁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>料仓</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>集尘器</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>吸料机</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>清洁吸料机内部隔离滤网及设备表面。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>分别清洁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>层料仓内部及设备表面。</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洁电动叉车、测厚仪、电子称、吸尘器设备表面。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洁集尘器内部及设备表面。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>混料机</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洁混料机内部及设备表面。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>清洁吸料机内部滤网及设备表面。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -733,56 +516,56 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,7 +874,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1104,324 +887,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="15"/>
+      <c r="K1" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="20"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="26"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="16"/>
       <c r="K4" s="7" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="13"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="13"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="13"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="13"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="13"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="13"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="13"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="13"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="13"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="13"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J15" s="13"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12" ht="30.95" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K16" s="4"/>
@@ -1429,22 +1146,40 @@
     </row>
     <row r="17" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
     <mergeCell ref="A17:L17"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="B4:H4"/>
@@ -1458,27 +1193,9 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
